--- a/user-data/kenya-local-percent/kenya-local-percent.xlsx
+++ b/user-data/kenya-local-percent/kenya-local-percent.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-local-percent/kenya-local-percent.xlsx
+++ b/user-data/kenya-local-percent/kenya-local-percent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Baringo</t>
   </si>
   <si>
-    <t xml:space="preserve">estimated</t>
+    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">d18975</t>
@@ -64,7 +64,16 @@
     <t xml:space="preserve">Elgeyo-Marakwet</t>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
+    <t xml:space="preserve">d18955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garissa</t>
   </si>
   <si>
     <t xml:space="preserve">d18968</t>
@@ -73,12 +82,30 @@
     <t xml:space="preserve">Homa Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">d18956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isiolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18989</t>
   </si>
   <si>
     <t xml:space="preserve">Kakamega</t>
   </si>
   <si>
+    <t xml:space="preserve">d18977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kericho</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18943</t>
   </si>
   <si>
@@ -109,36 +136,114 @@
     <t xml:space="preserve">Kisumu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitui</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18950</t>
   </si>
   <si>
     <t xml:space="preserve">Kwale</t>
   </si>
   <si>
+    <t xml:space="preserve">d18978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laikipia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18951</t>
   </si>
   <si>
     <t xml:space="preserve">Lamu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machakos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makueni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandera</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18960</t>
   </si>
   <si>
     <t xml:space="preserve">Marsabit</t>
   </si>
   <si>
+    <t xml:space="preserve">d18961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mombasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murang'a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18979</t>
   </si>
   <si>
     <t xml:space="preserve">Nakuru</t>
   </si>
   <si>
+    <t xml:space="preserve">d18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narok</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18962</t>
   </si>
   <si>
     <t xml:space="preserve">Nithi</t>
   </si>
   <si>
+    <t xml:space="preserve">d18972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18947</t>
   </si>
   <si>
@@ -169,24 +274,51 @@
     <t xml:space="preserve">Taita Taveta</t>
   </si>
   <si>
+    <t xml:space="preserve">d18954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tana River</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18983</t>
   </si>
   <si>
     <t xml:space="preserve">Trans-Nzoia</t>
   </si>
   <si>
+    <t xml:space="preserve">d18984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18985</t>
   </si>
   <si>
     <t xml:space="preserve">Uasin Gishu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajir</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18986</t>
   </si>
   <si>
     <t xml:space="preserve">West Pokot</t>
   </si>
   <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
@@ -208,7 +340,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -566,77 +698,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -678,310 +810,310 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>10.1454408676</v>
+        <v>5.32491213234323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>6.0268521697604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>4.6809699976</v>
+        <v>5.75061947275526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>31.642532616</v>
+        <v>5.30538939561661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>8.6607434081</v>
+        <v>5.20215728286083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>16.6113498202</v>
+        <v>5.18652381567058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4.4063813141</v>
+        <v>4.73476488833302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>4.091722276</v>
+        <v>3.33010356698421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0966975658</v>
+        <v>4.30953198410784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>88.7435335693</v>
+        <v>3.13730575748029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>8.4702955583</v>
+        <v>2.71984279397972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>8.1781253478</v>
+        <v>6.98248355993469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>32.3818968311</v>
+        <v>7.49721194422212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>25.7065236399</v>
+        <v>7.23490095487967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>22.5309581194</v>
+        <v>6.69799156863813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>16.3708941074</v>
+        <v>8.2344696400861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>24.8693523114</v>
+        <v>6.20432304522311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>19.388462097</v>
+        <v>5.64038205008907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
         <v>2016</v>
@@ -990,83 +1122,83 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.7919544509</v>
+        <v>4.05310779618157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.0309920532</v>
+        <v>2.53012738570167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.957256361</v>
+        <v>1.90297925440649</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>26.7491082025</v>
+        <v>4.27218606087993</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>24.4976074616</v>
+        <v>3.62539638749359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
         <v>2016</v>
@@ -1075,262 +1207,3594 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>13.0494595824</v>
+        <v>2.59887925109023</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7164722398</v>
+        <v>2.61229365240327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>15.4400338897</v>
+        <v>4.40442272002509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>16.1449995251</v>
+        <v>10.1482006223279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>5.4859585012</v>
+        <v>8.78044993890942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>4.4906523695</v>
+        <v>8.22761490133301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>9.9358812149</v>
+        <v>8.19857836251068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.6671969386</v>
+        <v>0.731026899346352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>9.7012480296</v>
+        <v>2.34806897399694</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>6.1825128878</v>
+        <v>1.66894215717477</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>7.2769505862</v>
+        <v>1.20317231829662</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>16.7620038776</v>
+        <v>1.14655206040528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>15.5847466268</v>
+        <v>2.31172300421247</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C38" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2.7438492654</v>
+        <v>3.08305722272369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>3.05034924853302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.23706526339664</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.49481025429281</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.97433244458594</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.75918650113203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.39034498184889</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.71603871027116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.79616486063732</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.275208800163</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16.82250620224</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.5099804611542</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.99785830888988</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10.0915016318512</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.08240123526532</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.06107501229586</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.92750393487988</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.07941462372651</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.86480189352932</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.30104292017649</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.49931774472346</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.50026171970261</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8.68301100453769</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.94592712337398</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.912215489587</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>23.8292820528003</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23.2197682475577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>17.658161693594</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.4697115671383</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7.36833667334669</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.71716131528697</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.22478249226194</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.9301825185184</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.69845118672952</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.58668857847165</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9.13343369084209</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9.41378459498946</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.52195620025981</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.82253336251889</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.97709195036589</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.49154049049545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.84366731346115</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.15099266767106</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.9302138939917</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10.4815195590986</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15.6468529743553</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13.5640737453339</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12.8176462934825</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.7533420122956</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.34763810312313</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.75894648535711</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5.24372638023457</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.66339331077753</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.50206483929673</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.97744037814223</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.29998581410286</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.45339127772183</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.61654071770522</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.47302294108264</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.2596534492829</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.6765026274397</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12.4737759317867</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10.5125114556904</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.87601094659692</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.17763640812332</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.30340079747564</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.5375508334409</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.14445143111663</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.03956732924105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>17.3450338816128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>18.1579667768311</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13.3035656302208</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.5835555985353</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.3697323969845</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.8267834388463</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.93901622088397</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.33987892241198</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.14665164606657</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.18208532523608</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.3019478642853</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.10627473260751</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.954462197996218</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.556134208910668</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.605516214634287</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.11680302993518</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.13029996051622</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.07693649201987</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.20261981969843</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.18595231624782</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="n">
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.28873329555218</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8.54898286515714</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.30776763794105</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.72013104037314</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" t="n">
         <v>2017</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.4248811858</v>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.89328487382023</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.7439160171783</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.27725920701289</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.25609985089761</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.23979983239102</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.06569940248479</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.6015032942559</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34.3972016240079</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24.7797368745423</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>33.2155662980824</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>26.2877991884449</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8.89001778003556</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.5573918630548</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10.0217746925488</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>62</v>
+      </c>
+      <c r="B145" t="s">
+        <v>63</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.58676742411502</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.3853383132872</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>50.2752570322516</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>50.2295907843246</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>46.501413072105</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>42.8171631792352</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>38.3997575408112</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>19.3029490616622</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>22.8169987100873</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>20.6005003839607</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>13.9881168755514</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>18.2247711459071</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.23067782343912</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>68</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.66169682832178</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.78101202800325</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.41038109078649</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" t="s">
+        <v>69</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.49889477978942</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>26.414031133338</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>26.0824162243609</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" t="s">
+        <v>71</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>24.3167819431871</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>20.4345141301797</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>23.7455504306209</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.38191034373515</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.49158799910137</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.11444860520502</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>72</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.20250861496764</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.09814275493427</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" t="s">
+        <v>75</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.78733246352746</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.78324608781467</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>74</v>
+      </c>
+      <c r="B174" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.4341955574269</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>74</v>
+      </c>
+      <c r="B175" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.93236890516009</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>74</v>
+      </c>
+      <c r="B176" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.89051253690143</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>76</v>
+      </c>
+      <c r="B177" t="s">
+        <v>77</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.92813555473562</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.5618295236974</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.93166090410072</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.77380719872358</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>76</v>
+      </c>
+      <c r="B181" t="s">
+        <v>77</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.64392192739822</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8.91262656465882</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" t="s">
+        <v>79</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>14.236863946903</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.4765939931047</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10.7340687652412</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.8905214231094</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>80</v>
+      </c>
+      <c r="B187" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.68240300541906</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.62470530310733</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>80</v>
+      </c>
+      <c r="B189" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.39410622247424</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>80</v>
+      </c>
+      <c r="B190" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.54368662024165</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>80</v>
+      </c>
+      <c r="B191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.61479201927806</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>82</v>
+      </c>
+      <c r="B192" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.42836328314716</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>82</v>
+      </c>
+      <c r="B193" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.16504734161387</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>83</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.40784103632791</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B195" t="s">
+        <v>83</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.94210523958095</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" t="s">
+        <v>83</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.27650447082701</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>84</v>
+      </c>
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.61217467696475</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>84</v>
+      </c>
+      <c r="B198" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>7.52348538522376</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" t="s">
+        <v>85</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.68947039577428</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>84</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.43909730716069</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.44732321201586</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>86</v>
+      </c>
+      <c r="B202" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.02024549657261</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.719662948190206</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.694048509658638</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205" t="s">
+        <v>87</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.606850985849358</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>86</v>
+      </c>
+      <c r="B206" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.997063774457713</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>88</v>
+      </c>
+      <c r="B207" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.92575949985347</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>88</v>
+      </c>
+      <c r="B208" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.89364161463095</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>88</v>
+      </c>
+      <c r="B209" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.49731955063231</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>88</v>
+      </c>
+      <c r="B210" t="s">
+        <v>89</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.64637751945845</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>88</v>
+      </c>
+      <c r="B211" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.91923948348797</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>90</v>
+      </c>
+      <c r="B212" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.60924103874834</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>90</v>
+      </c>
+      <c r="B213" t="s">
+        <v>91</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.3607251820182</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>90</v>
+      </c>
+      <c r="B214" t="s">
+        <v>91</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.24061793033127</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>90</v>
+      </c>
+      <c r="B215" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.58673243759309</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" t="s">
+        <v>91</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.29610725588032</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>92</v>
+      </c>
+      <c r="B217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.6611501861812</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>92</v>
+      </c>
+      <c r="B218" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="n">
+        <v>16.2249170809245</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>92</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.8984840390963</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>92</v>
+      </c>
+      <c r="B220" t="s">
+        <v>93</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>10.327783808779</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>92</v>
+      </c>
+      <c r="B221" t="s">
+        <v>93</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.8860721637485</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>94</v>
+      </c>
+      <c r="B222" t="s">
+        <v>95</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.95154312085376</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>94</v>
+      </c>
+      <c r="B223" t="s">
+        <v>95</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.28473304427176</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>94</v>
+      </c>
+      <c r="B224" t="s">
+        <v>95</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.36695332102099</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>94</v>
+      </c>
+      <c r="B225" t="s">
+        <v>95</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.14004309367962</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>94</v>
+      </c>
+      <c r="B226" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.93943861360744</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" t="s">
+        <v>97</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.06671329894203</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>96</v>
+      </c>
+      <c r="B228" t="s">
+        <v>97</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.70872164543802</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>96</v>
+      </c>
+      <c r="B229" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.09490011340998</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>96</v>
+      </c>
+      <c r="B230" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.93558437686624</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>96</v>
+      </c>
+      <c r="B231" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.10404463693873</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>98</v>
+      </c>
+      <c r="B232" t="s">
+        <v>99</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.59331295479752</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>98</v>
+      </c>
+      <c r="B233" t="s">
+        <v>99</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.62113944821629</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>98</v>
+      </c>
+      <c r="B234" t="s">
+        <v>99</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.16497463569928</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>98</v>
+      </c>
+      <c r="B235" t="s">
+        <v>99</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.7075627758751</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>98</v>
+      </c>
+      <c r="B236" t="s">
+        <v>99</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.70558715579535</v>
       </c>
     </row>
   </sheetData>
@@ -1352,16 +4816,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -1369,302 +4836,939 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1454408676</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>5.32491213234323</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.0268521697604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.75061947275526</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.30538939561661</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.20215728286083</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>5.18652381567058</v>
+      </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>4.73476488833302</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6809699976</v>
-      </c>
-      <c r="E3"/>
+        <v>3.33010356698421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.30953198410784</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.13730575748029</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>31.642532616</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>2.71984279397972</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.98248355993469</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.49721194422212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.23490095487967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.69799156863813</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>8.2344696400861</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.20432304522311</v>
+      </c>
       <c r="D5" t="n">
-        <v>8.6607434081</v>
-      </c>
-      <c r="E5"/>
+        <v>5.64038205008907</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.05310779618157</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.53012738570167</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6113498202</v>
+        <v>1.90297925440649</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4063813141</v>
+        <v>4.27218606087993</v>
       </c>
       <c r="D6" t="n">
-        <v>4.091722276</v>
+        <v>3.62539638749359</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0966975658</v>
+        <v>2.59887925109023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.61229365240327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7"/>
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.40442272002509</v>
+      </c>
       <c r="C7" t="n">
-        <v>88.7435335693</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>10.1482006223279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.78044993890942</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.22761490133301</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.19857836251068</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8"/>
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.731026899346352</v>
+      </c>
       <c r="C8" t="n">
-        <v>8.4702955583</v>
+        <v>2.34806897399694</v>
       </c>
       <c r="D8" t="n">
-        <v>8.1781253478</v>
-      </c>
-      <c r="E8"/>
+        <v>1.66894215717477</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.20317231829662</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.14655206040528</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>32.3818968311</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>2.31172300421247</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.08305722272369</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.05034924853302</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.23706526339664</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.49481025429281</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7065236399</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>4.97433244458594</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.75918650113203</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.39034498184889</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.71603871027116</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.79616486063732</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5309581194</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>11.275208800163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.82250620224</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.5099804611542</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.99785830888988</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.0915016318512</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3708941074</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>4.08240123526532</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.06107501229586</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.92750393487988</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.07941462372651</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.86480189352932</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13"/>
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.30104292017649</v>
+      </c>
       <c r="C13" t="n">
-        <v>24.8693523114</v>
+        <v>9.49931774472346</v>
       </c>
       <c r="D13" t="n">
-        <v>19.388462097</v>
-      </c>
-      <c r="E13"/>
+        <v>8.50026171970261</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.68301100453769</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.94592712337398</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.912215489587</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.8292820528003</v>
+      </c>
       <c r="D14" t="n">
-        <v>3.7919544509</v>
-      </c>
-      <c r="E14"/>
+        <v>23.2197682475577</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.658161693594</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.4697115671383</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
+        <v>32</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.36833667334669</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.71716131528697</v>
+      </c>
       <c r="D15" t="n">
-        <v>2.0309920532</v>
-      </c>
-      <c r="E15"/>
+        <v>6.22478249226194</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.9301825185184</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.69845118672952</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16"/>
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.58668857847165</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.957256361</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
+        <v>9.13343369084209</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.41378459498946</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.52195620025981</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.82253336251889</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
+        <v>36</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.97709195036589</v>
+      </c>
       <c r="C17" t="n">
-        <v>26.7491082025</v>
+        <v>4.49154049049545</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4976074616</v>
-      </c>
-      <c r="E17"/>
+        <v>3.84366731346115</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.15099266767106</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.9302138939917</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
+        <v>38</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.4815195590986</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.6468529743553</v>
+      </c>
       <c r="D18" t="n">
-        <v>13.0494595824</v>
-      </c>
-      <c r="E18"/>
+        <v>13.5640737453339</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.8176462934825</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.7533420122956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19"/>
+        <v>40</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.34763810312313</v>
+      </c>
       <c r="C19" t="n">
-        <v>5.7164722398</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>4.75894648535711</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.24372638023457</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.66339331077753</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.50206483929673</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>42</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.97744037814223</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.29998581410286</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.45339127772183</v>
+      </c>
       <c r="E20" t="n">
-        <v>15.4400338897</v>
+        <v>3.61654071770522</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.47302294108264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
+        <v>44</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.2596534492829</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.6765026274397</v>
+      </c>
       <c r="D21" t="n">
-        <v>16.1449995251</v>
-      </c>
-      <c r="E21"/>
+        <v>12.4737759317867</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.5125114556904</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.87601094659692</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
+        <v>46</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.17763640812332</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.30340079747564</v>
+      </c>
       <c r="D22" t="n">
-        <v>5.4859585012</v>
+        <v>2.5375508334409</v>
       </c>
       <c r="E22" t="n">
-        <v>4.4906523695</v>
+        <v>3.14445143111663</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.03956732924105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23"/>
+        <v>48</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17.3450338816128</v>
+      </c>
       <c r="C23" t="n">
-        <v>9.9358812149</v>
+        <v>18.1579667768311</v>
       </c>
       <c r="D23" t="n">
-        <v>11.6671969386</v>
+        <v>13.3035656302208</v>
       </c>
       <c r="E23" t="n">
-        <v>9.7012480296</v>
+        <v>13.5835555985353</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.3697323969845</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
+        <v>50</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.8267834388463</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.93901622088397</v>
+      </c>
       <c r="D24" t="n">
-        <v>6.1825128878</v>
+        <v>3.33987892241198</v>
       </c>
       <c r="E24" t="n">
-        <v>7.2769505862</v>
+        <v>3.14665164606657</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.18208532523608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25"/>
+        <v>52</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3019478642853</v>
+      </c>
       <c r="C25" t="n">
-        <v>16.7620038776</v>
-      </c>
-      <c r="D25"/>
+        <v>1.10627473260751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.954462197996218</v>
+      </c>
       <c r="E25" t="n">
-        <v>15.5847466268</v>
+        <v>0.556134208910668</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.605516214634287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26"/>
+        <v>54</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.11680302993518</v>
+      </c>
       <c r="C26" t="n">
-        <v>2.7438492654</v>
+        <v>2.13029996051622</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>2.07693649201987</v>
       </c>
       <c r="E26" t="n">
-        <v>2.4248811858</v>
+        <v>2.20261981969843</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.18595231624782</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.28873329555218</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.54898286515714</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.30776763794105</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.72013104037314</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.89328487382023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.7439160171783</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.27725920701289</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.25609985089761</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.23979983239102</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.06569940248479</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26.6015032942559</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.3972016240079</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24.7797368745423</v>
+      </c>
+      <c r="E29" t="n">
+        <v>33.2155662980824</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.2877991884449</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.89001778003556</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.5573918630548</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.0217746925488</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.58676742411502</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.3853383132872</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="n">
+        <v>50.2752570322516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50.2295907843246</v>
+      </c>
+      <c r="D31" t="n">
+        <v>46.501413072105</v>
+      </c>
+      <c r="E31" t="n">
+        <v>42.8171631792352</v>
+      </c>
+      <c r="F31" t="n">
+        <v>38.3997575408112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19.3029490616622</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22.8169987100873</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.6005003839607</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.9881168755514</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.2247711459071</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.23067782343912</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.66169682832178</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.78101202800325</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.41038109078649</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.49889477978942</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="n">
+        <v>26.414031133338</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.0824162243609</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.3167819431871</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.4345141301797</v>
+      </c>
+      <c r="F34" t="n">
+        <v>23.7455504306209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.38191034373515</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.49158799910137</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.11444860520502</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.20250861496764</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.09814275493427</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.78733246352746</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.78324608781467</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.4341955574269</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.93236890516009</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.89051253690143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.92813555473562</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.5618295236974</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.93166090410072</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.77380719872358</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.64392192739822</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.91262656465882</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.236863946903</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.4765939931047</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.7340687652412</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11.8905214231094</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.68240300541906</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.62470530310733</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.39410622247424</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.54368662024165</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.61479201927806</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.42836328314716</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.16504734161387</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.40784103632791</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.94210523958095</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.27650447082701</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.61217467696475</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.52348538522376</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.68947039577428</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.43909730716069</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.44732321201586</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.02024549657261</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.719662948190206</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.694048509658638</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.606850985849358</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.997063774457713</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.92575949985347</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.89364161463095</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.49731955063231</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.64637751945845</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.91923948348797</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.60924103874834</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.3607251820182</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.24061793033127</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.58673243759309</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.29610725588032</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.6611501861812</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16.2249170809245</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.8984840390963</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.327783808779</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11.8860721637485</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.95154312085376</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.28473304427176</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.36695332102099</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.14004309367962</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.93943861360744</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.06671329894203</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.70872164543802</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.09490011340998</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.93558437686624</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.10404463693873</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.59331295479752</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.62113944821629</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.16497463569928</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.7075627758751</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.70558715579535</v>
       </c>
     </row>
   </sheetData>
